--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ly86-Cd180.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ly86-Cd180.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cd180</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>126.7341283333333</v>
+        <v>0.6410090000000001</v>
       </c>
       <c r="H2">
-        <v>380.202385</v>
+        <v>1.923027</v>
       </c>
       <c r="I2">
-        <v>0.3866927553064318</v>
+        <v>0.005069072203501787</v>
       </c>
       <c r="J2">
-        <v>0.3866927553064318</v>
+        <v>0.005069072203501787</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.257910333333333</v>
+        <v>3.413185</v>
       </c>
       <c r="N2">
-        <v>3.773731</v>
+        <v>10.239555</v>
       </c>
       <c r="O2">
-        <v>0.005038171381153627</v>
+        <v>0.01281891839503857</v>
       </c>
       <c r="P2">
-        <v>0.005038171381153627</v>
+        <v>0.01281891839503857</v>
       </c>
       <c r="Q2">
-        <v>159.4201696164928</v>
+        <v>2.187882303665</v>
       </c>
       <c r="R2">
-        <v>1434.781526548435</v>
+        <v>19.690940732985</v>
       </c>
       <c r="S2">
-        <v>0.001948224373084307</v>
+        <v>6.498002291524777E-05</v>
       </c>
       <c r="T2">
-        <v>0.001948224373084307</v>
+        <v>6.498002291524776E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>126.7341283333333</v>
+        <v>0.6410090000000001</v>
       </c>
       <c r="H3">
-        <v>380.202385</v>
+        <v>1.923027</v>
       </c>
       <c r="I3">
-        <v>0.3866927553064318</v>
+        <v>0.005069072203501787</v>
       </c>
       <c r="J3">
-        <v>0.3866927553064318</v>
+        <v>0.005069072203501787</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>90.22063800000001</v>
+        <v>71.73578866666666</v>
       </c>
       <c r="N3">
-        <v>270.661914</v>
+        <v>215.207366</v>
       </c>
       <c r="O3">
-        <v>0.3613509042067556</v>
+        <v>0.2694185111330716</v>
       </c>
       <c r="P3">
-        <v>0.3613509042067556</v>
+        <v>0.2694185111330716</v>
       </c>
       <c r="Q3">
-        <v>11434.03391460721</v>
+        <v>45.98328615743134</v>
       </c>
       <c r="R3">
-        <v>102906.3052314649</v>
+        <v>413.849575416882</v>
       </c>
       <c r="S3">
-        <v>0.1397317767801808</v>
+        <v>0.00136570188589349</v>
       </c>
       <c r="T3">
-        <v>0.1397317767801808</v>
+        <v>0.00136570188589349</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>126.7341283333333</v>
+        <v>0.6410090000000001</v>
       </c>
       <c r="H4">
-        <v>380.202385</v>
+        <v>1.923027</v>
       </c>
       <c r="I4">
-        <v>0.3866927553064318</v>
+        <v>0.005069072203501787</v>
       </c>
       <c r="J4">
-        <v>0.3866927553064318</v>
+        <v>0.005069072203501787</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1903456666666667</v>
+        <v>0.5338986666666666</v>
       </c>
       <c r="N4">
-        <v>0.571037</v>
+        <v>1.601696</v>
       </c>
       <c r="O4">
-        <v>0.0007623707866246491</v>
+        <v>0.002005166271157263</v>
       </c>
       <c r="P4">
-        <v>0.0007623707866246491</v>
+        <v>0.002005166271157263</v>
       </c>
       <c r="Q4">
-        <v>24.12329214702722</v>
+        <v>0.3422338504213334</v>
       </c>
       <c r="R4">
-        <v>217.109629323245</v>
+        <v>3.080104653792</v>
       </c>
       <c r="S4">
-        <v>0.0002948032600450173</v>
+        <v>1.016433260852261E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002948032600450173</v>
+        <v>1.016433260852261E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>126.7341283333333</v>
+        <v>0.6410090000000001</v>
       </c>
       <c r="H5">
-        <v>380.202385</v>
+        <v>1.923027</v>
       </c>
       <c r="I5">
-        <v>0.3866927553064318</v>
+        <v>0.005069072203501787</v>
       </c>
       <c r="J5">
-        <v>0.3866927553064318</v>
+        <v>0.005069072203501787</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.73834733333334</v>
+        <v>43.85762</v>
       </c>
       <c r="N5">
-        <v>146.215042</v>
+        <v>131.57286</v>
       </c>
       <c r="O5">
-        <v>0.1952063992103771</v>
+        <v>0.1647163138771006</v>
       </c>
       <c r="P5">
-        <v>0.1952063992103771</v>
+        <v>0.1647163138771006</v>
       </c>
       <c r="Q5">
-        <v>6176.811965697241</v>
+        <v>28.11312913858</v>
       </c>
       <c r="R5">
-        <v>55591.30769127517</v>
+        <v>253.01816224722</v>
       </c>
       <c r="S5">
-        <v>0.07548490036410799</v>
+        <v>0.0008349588881376863</v>
       </c>
       <c r="T5">
-        <v>0.07548490036410799</v>
+        <v>0.0008349588881376863</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>126.7341283333333</v>
+        <v>0.6410090000000001</v>
       </c>
       <c r="H6">
-        <v>380.202385</v>
+        <v>1.923027</v>
       </c>
       <c r="I6">
-        <v>0.3866927553064318</v>
+        <v>0.005069072203501787</v>
       </c>
       <c r="J6">
-        <v>0.3866927553064318</v>
+        <v>0.005069072203501787</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>109.26873</v>
+        <v>146.7210513333333</v>
       </c>
       <c r="N6">
-        <v>327.80619</v>
+        <v>440.163154</v>
       </c>
       <c r="O6">
-        <v>0.437642154415089</v>
+        <v>0.5510410903236319</v>
       </c>
       <c r="P6">
-        <v>0.437642154415089</v>
+        <v>0.5510410903236319</v>
       </c>
       <c r="Q6">
-        <v>13848.07725064035</v>
+        <v>94.04951439412868</v>
       </c>
       <c r="R6">
-        <v>124632.6952557632</v>
+        <v>846.4456295471581</v>
       </c>
       <c r="S6">
-        <v>0.1692330505290136</v>
+        <v>0.00279326707394684</v>
       </c>
       <c r="T6">
-        <v>0.1692330505290136</v>
+        <v>0.00279326707394684</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.22068333333333</v>
+        <v>65.36971666666666</v>
       </c>
       <c r="H7">
-        <v>42.66205</v>
+        <v>196.10915</v>
       </c>
       <c r="I7">
-        <v>0.04339032660597528</v>
+        <v>0.5169409691685881</v>
       </c>
       <c r="J7">
-        <v>0.04339032660597528</v>
+        <v>0.5169409691685881</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.257910333333333</v>
+        <v>3.413185</v>
       </c>
       <c r="N7">
-        <v>3.773731</v>
+        <v>10.239555</v>
       </c>
       <c r="O7">
-        <v>0.005038171381153627</v>
+        <v>0.01281891839503857</v>
       </c>
       <c r="P7">
-        <v>0.005038171381153627</v>
+        <v>0.01281891839503857</v>
       </c>
       <c r="Q7">
-        <v>17.88834451206111</v>
+        <v>223.1189363809166</v>
       </c>
       <c r="R7">
-        <v>160.99510060855</v>
+        <v>2008.07042742825</v>
       </c>
       <c r="S7">
-        <v>0.0002186079017251335</v>
+        <v>0.006626624098824282</v>
       </c>
       <c r="T7">
-        <v>0.0002186079017251335</v>
+        <v>0.006626624098824282</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.22068333333333</v>
+        <v>65.36971666666666</v>
       </c>
       <c r="H8">
-        <v>42.66205</v>
+        <v>196.10915</v>
       </c>
       <c r="I8">
-        <v>0.04339032660597528</v>
+        <v>0.5169409691685881</v>
       </c>
       <c r="J8">
-        <v>0.04339032660597528</v>
+        <v>0.5169409691685881</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>90.22063800000001</v>
+        <v>71.73578866666666</v>
       </c>
       <c r="N8">
-        <v>270.661914</v>
+        <v>215.207366</v>
       </c>
       <c r="O8">
-        <v>0.3613509042067556</v>
+        <v>0.2694185111330716</v>
       </c>
       <c r="P8">
-        <v>0.3613509042067556</v>
+        <v>0.2694185111330716</v>
       </c>
       <c r="Q8">
-        <v>1282.9991231293</v>
+        <v>4689.348179999877</v>
       </c>
       <c r="R8">
-        <v>11546.9921081637</v>
+        <v>42204.13361999889</v>
       </c>
       <c r="S8">
-        <v>0.01567913375289562</v>
+        <v>0.1392734662570881</v>
       </c>
       <c r="T8">
-        <v>0.01567913375289562</v>
+        <v>0.1392734662570881</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.22068333333333</v>
+        <v>65.36971666666666</v>
       </c>
       <c r="H9">
-        <v>42.66205</v>
+        <v>196.10915</v>
       </c>
       <c r="I9">
-        <v>0.04339032660597528</v>
+        <v>0.5169409691685881</v>
       </c>
       <c r="J9">
-        <v>0.04339032660597528</v>
+        <v>0.5169409691685881</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1903456666666667</v>
+        <v>0.5338986666666666</v>
       </c>
       <c r="N9">
-        <v>0.571037</v>
+        <v>1.601696</v>
       </c>
       <c r="O9">
-        <v>0.0007623707866246491</v>
+        <v>0.002005166271157263</v>
       </c>
       <c r="P9">
-        <v>0.0007623707866246491</v>
+        <v>0.002005166271157263</v>
       </c>
       <c r="Q9">
-        <v>2.706845449538889</v>
+        <v>34.90080456871111</v>
       </c>
       <c r="R9">
-        <v>24.36160904585</v>
+        <v>314.1072411184</v>
       </c>
       <c r="S9">
-        <v>3.307951742649781E-05</v>
+        <v>0.001036552595556199</v>
       </c>
       <c r="T9">
-        <v>3.307951742649781E-05</v>
+        <v>0.001036552595556199</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.22068333333333</v>
+        <v>65.36971666666666</v>
       </c>
       <c r="H10">
-        <v>42.66205</v>
+        <v>196.10915</v>
       </c>
       <c r="I10">
-        <v>0.04339032660597528</v>
+        <v>0.5169409691685881</v>
       </c>
       <c r="J10">
-        <v>0.04339032660597528</v>
+        <v>0.5169409691685881</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>48.73834733333334</v>
+        <v>43.85762</v>
       </c>
       <c r="N10">
-        <v>146.215042</v>
+        <v>131.57286</v>
       </c>
       <c r="O10">
-        <v>0.1952063992103771</v>
+        <v>0.1647163138771006</v>
       </c>
       <c r="P10">
-        <v>0.1952063992103771</v>
+        <v>0.1647163138771006</v>
       </c>
       <c r="Q10">
-        <v>693.0926036173445</v>
+        <v>2866.960193074333</v>
       </c>
       <c r="R10">
-        <v>6237.833432556101</v>
+        <v>25802.641737669</v>
       </c>
       <c r="S10">
-        <v>0.008470069417314659</v>
+        <v>0.08514861093350574</v>
       </c>
       <c r="T10">
-        <v>0.008470069417314659</v>
+        <v>0.08514861093350576</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,14 +1083,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.22068333333333</v>
+        <v>65.36971666666666</v>
       </c>
       <c r="H11">
-        <v>42.66205</v>
+        <v>196.10915</v>
       </c>
       <c r="I11">
-        <v>0.04339032660597528</v>
+        <v>0.5169409691685881</v>
       </c>
       <c r="J11">
-        <v>0.04339032660597528</v>
+        <v>0.5169409691685881</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>109.26873</v>
+        <v>146.7210513333333</v>
       </c>
       <c r="N11">
-        <v>327.80619</v>
+        <v>440.163154</v>
       </c>
       <c r="O11">
-        <v>0.437642154415089</v>
+        <v>0.5510410903236319</v>
       </c>
       <c r="P11">
-        <v>0.437642154415089</v>
+        <v>0.5510410903236319</v>
       </c>
       <c r="Q11">
-        <v>1553.8760075655</v>
+        <v>9591.113554695456</v>
       </c>
       <c r="R11">
-        <v>13984.8840680895</v>
+        <v>86320.02199225911</v>
       </c>
       <c r="S11">
-        <v>0.01898943601661338</v>
+        <v>0.2848557152836138</v>
       </c>
       <c r="T11">
-        <v>0.01898943601661338</v>
+        <v>0.2848557152836138</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>186.7837523333334</v>
+        <v>10.18446633333333</v>
       </c>
       <c r="H12">
-        <v>560.351257</v>
+        <v>30.553399</v>
       </c>
       <c r="I12">
-        <v>0.569916918087593</v>
+        <v>0.08053833128364775</v>
       </c>
       <c r="J12">
-        <v>0.5699169180875929</v>
+        <v>0.08053833128364775</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.257910333333333</v>
+        <v>3.413185</v>
       </c>
       <c r="N12">
-        <v>3.773731</v>
+        <v>10.239555</v>
       </c>
       <c r="O12">
-        <v>0.005038171381153627</v>
+        <v>0.01281891839503857</v>
       </c>
       <c r="P12">
-        <v>0.005038171381153627</v>
+        <v>0.01281891839503857</v>
       </c>
       <c r="Q12">
-        <v>234.9572121588742</v>
+        <v>34.76146772193833</v>
       </c>
       <c r="R12">
-        <v>2114.614909429867</v>
+        <v>312.853209497445</v>
       </c>
       <c r="S12">
-        <v>0.002871339106344187</v>
+        <v>0.001032414296397663</v>
       </c>
       <c r="T12">
-        <v>0.002871339106344187</v>
+        <v>0.001032414296397663</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>186.7837523333334</v>
+        <v>10.18446633333333</v>
       </c>
       <c r="H13">
-        <v>560.351257</v>
+        <v>30.553399</v>
       </c>
       <c r="I13">
-        <v>0.569916918087593</v>
+        <v>0.08053833128364775</v>
       </c>
       <c r="J13">
-        <v>0.5699169180875929</v>
+        <v>0.08053833128364775</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>90.22063800000001</v>
+        <v>71.73578866666666</v>
       </c>
       <c r="N13">
-        <v>270.661914</v>
+        <v>215.207366</v>
       </c>
       <c r="O13">
-        <v>0.3613509042067556</v>
+        <v>0.2694185111330716</v>
       </c>
       <c r="P13">
-        <v>0.3613509042067556</v>
+        <v>0.2694185111330716</v>
       </c>
       <c r="Q13">
-        <v>16851.74930354733</v>
+        <v>730.5907245707815</v>
       </c>
       <c r="R13">
-        <v>151665.7437319259</v>
+        <v>6575.316521137033</v>
       </c>
       <c r="S13">
-        <v>0.2059399936736792</v>
+        <v>0.02169851730358246</v>
       </c>
       <c r="T13">
-        <v>0.2059399936736792</v>
+        <v>0.02169851730358246</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>186.7837523333334</v>
+        <v>10.18446633333333</v>
       </c>
       <c r="H14">
-        <v>560.351257</v>
+        <v>30.553399</v>
       </c>
       <c r="I14">
-        <v>0.569916918087593</v>
+        <v>0.08053833128364775</v>
       </c>
       <c r="J14">
-        <v>0.5699169180875929</v>
+        <v>0.08053833128364775</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1903456666666667</v>
+        <v>0.5338986666666666</v>
       </c>
       <c r="N14">
-        <v>0.571037</v>
+        <v>1.601696</v>
       </c>
       <c r="O14">
-        <v>0.0007623707866246491</v>
+        <v>0.002005166271157263</v>
       </c>
       <c r="P14">
-        <v>0.0007623707866246491</v>
+        <v>0.002005166271157263</v>
       </c>
       <c r="Q14">
-        <v>35.55347786038989</v>
+        <v>5.437472996078221</v>
       </c>
       <c r="R14">
-        <v>319.9813007435091</v>
+        <v>48.937256964704</v>
       </c>
       <c r="S14">
-        <v>0.000434488009153134</v>
+        <v>0.0001614927454252603</v>
       </c>
       <c r="T14">
-        <v>0.0004344880091531339</v>
+        <v>0.0001614927454252603</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>186.7837523333334</v>
+        <v>10.18446633333333</v>
       </c>
       <c r="H15">
-        <v>560.351257</v>
+        <v>30.553399</v>
       </c>
       <c r="I15">
-        <v>0.569916918087593</v>
+        <v>0.08053833128364775</v>
       </c>
       <c r="J15">
-        <v>0.5699169180875929</v>
+        <v>0.08053833128364775</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>48.73834733333334</v>
+        <v>43.85762</v>
       </c>
       <c r="N15">
-        <v>146.215042</v>
+        <v>131.57286</v>
       </c>
       <c r="O15">
-        <v>0.1952063992103771</v>
+        <v>0.1647163138771006</v>
       </c>
       <c r="P15">
-        <v>0.1952063992103771</v>
+        <v>0.1647163138771006</v>
       </c>
       <c r="Q15">
-        <v>9103.531397445313</v>
+        <v>446.6664543501266</v>
       </c>
       <c r="R15">
-        <v>81931.78257700781</v>
+        <v>4019.99808915114</v>
       </c>
       <c r="S15">
-        <v>0.1112514294289545</v>
+        <v>0.01326597705485523</v>
       </c>
       <c r="T15">
-        <v>0.1112514294289545</v>
+        <v>0.01326597705485523</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>10.18446633333333</v>
+      </c>
+      <c r="H16">
+        <v>30.553399</v>
+      </c>
+      <c r="I16">
+        <v>0.08053833128364775</v>
+      </c>
+      <c r="J16">
+        <v>0.08053833128364775</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>146.7210513333333</v>
+      </c>
+      <c r="N16">
+        <v>440.163154</v>
+      </c>
+      <c r="O16">
+        <v>0.5510410903236319</v>
+      </c>
+      <c r="P16">
+        <v>0.5510410903236319</v>
+      </c>
+      <c r="Q16">
+        <v>1494.275607695605</v>
+      </c>
+      <c r="R16">
+        <v>13448.48046926045</v>
+      </c>
+      <c r="S16">
+        <v>0.04437992988338713</v>
+      </c>
+      <c r="T16">
+        <v>0.04437992988338713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>50.25970433333333</v>
+      </c>
+      <c r="H17">
+        <v>150.779113</v>
+      </c>
+      <c r="I17">
+        <v>0.3974516273442624</v>
+      </c>
+      <c r="J17">
+        <v>0.3974516273442624</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.413185</v>
+      </c>
+      <c r="N17">
+        <v>10.239555</v>
+      </c>
+      <c r="O17">
+        <v>0.01281891839503857</v>
+      </c>
+      <c r="P17">
+        <v>0.01281891839503857</v>
+      </c>
+      <c r="Q17">
+        <v>171.5456689349683</v>
+      </c>
+      <c r="R17">
+        <v>1543.911020414715</v>
+      </c>
+      <c r="S17">
+        <v>0.005094899976901382</v>
+      </c>
+      <c r="T17">
+        <v>0.005094899976901381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>50.25970433333333</v>
+      </c>
+      <c r="H18">
+        <v>150.779113</v>
+      </c>
+      <c r="I18">
+        <v>0.3974516273442624</v>
+      </c>
+      <c r="J18">
+        <v>0.3974516273442624</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>71.73578866666666</v>
+      </c>
+      <c r="N18">
+        <v>215.207366</v>
+      </c>
+      <c r="O18">
+        <v>0.2694185111330716</v>
+      </c>
+      <c r="P18">
+        <v>0.2694185111330716</v>
+      </c>
+      <c r="Q18">
+        <v>3605.419528505151</v>
+      </c>
+      <c r="R18">
+        <v>32448.77575654635</v>
+      </c>
+      <c r="S18">
+        <v>0.1070808256865076</v>
+      </c>
+      <c r="T18">
+        <v>0.1070808256865076</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>50.25970433333333</v>
+      </c>
+      <c r="H19">
+        <v>150.779113</v>
+      </c>
+      <c r="I19">
+        <v>0.3974516273442624</v>
+      </c>
+      <c r="J19">
+        <v>0.3974516273442624</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.5338986666666666</v>
+      </c>
+      <c r="N19">
+        <v>1.601696</v>
+      </c>
+      <c r="O19">
+        <v>0.002005166271157263</v>
+      </c>
+      <c r="P19">
+        <v>0.002005166271157263</v>
+      </c>
+      <c r="Q19">
+        <v>26.83358913062755</v>
+      </c>
+      <c r="R19">
+        <v>241.502302175648</v>
+      </c>
+      <c r="S19">
+        <v>0.0007969565975672805</v>
+      </c>
+      <c r="T19">
+        <v>0.0007969565975672804</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>186.7837523333334</v>
-      </c>
-      <c r="H16">
-        <v>560.351257</v>
-      </c>
-      <c r="I16">
-        <v>0.569916918087593</v>
-      </c>
-      <c r="J16">
-        <v>0.5699169180875929</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>109.26873</v>
-      </c>
-      <c r="N16">
-        <v>327.80619</v>
-      </c>
-      <c r="O16">
-        <v>0.437642154415089</v>
-      </c>
-      <c r="P16">
-        <v>0.437642154415089</v>
-      </c>
-      <c r="Q16">
-        <v>20409.62340209787</v>
-      </c>
-      <c r="R16">
-        <v>183686.6106188809</v>
-      </c>
-      <c r="S16">
-        <v>0.249419667869462</v>
-      </c>
-      <c r="T16">
-        <v>0.249419667869462</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>50.25970433333333</v>
+      </c>
+      <c r="H20">
+        <v>150.779113</v>
+      </c>
+      <c r="I20">
+        <v>0.3974516273442624</v>
+      </c>
+      <c r="J20">
+        <v>0.3974516273442624</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>43.85762</v>
+      </c>
+      <c r="N20">
+        <v>131.57286</v>
+      </c>
+      <c r="O20">
+        <v>0.1647163138771006</v>
+      </c>
+      <c r="P20">
+        <v>0.1647163138771006</v>
+      </c>
+      <c r="Q20">
+        <v>2204.271013963687</v>
+      </c>
+      <c r="R20">
+        <v>19838.43912567318</v>
+      </c>
+      <c r="S20">
+        <v>0.06546676700060194</v>
+      </c>
+      <c r="T20">
+        <v>0.06546676700060194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>50.25970433333333</v>
+      </c>
+      <c r="H21">
+        <v>150.779113</v>
+      </c>
+      <c r="I21">
+        <v>0.3974516273442624</v>
+      </c>
+      <c r="J21">
+        <v>0.3974516273442624</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>146.7210513333333</v>
+      </c>
+      <c r="N21">
+        <v>440.163154</v>
+      </c>
+      <c r="O21">
+        <v>0.5510410903236319</v>
+      </c>
+      <c r="P21">
+        <v>0.5510410903236319</v>
+      </c>
+      <c r="Q21">
+        <v>7374.156659489156</v>
+      </c>
+      <c r="R21">
+        <v>66367.40993540241</v>
+      </c>
+      <c r="S21">
+        <v>0.2190121780826842</v>
+      </c>
+      <c r="T21">
+        <v>0.2190121780826842</v>
       </c>
     </row>
   </sheetData>
